--- a/biology/Botanique/Évapotranspiration_potentielle/Évapotranspiration_potentielle.xlsx
+++ b/biology/Botanique/Évapotranspiration_potentielle/Évapotranspiration_potentielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89vapotranspiration_potentielle</t>
+          <t>Évapotranspiration_potentielle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'évapotranspiration potentielle (ETP) ou potentiel d'évaporation d'un sol est défini comme la quantité d'évaporation qui pourrait se produire en cas d'approvisionnement en eau suffisant. Si l'évapotranspiration réelle considère la demande nette de l'atmosphère en humidité par rapport à une surface et la capacité de cette surface à fournir l'humidité, l'ETP est une mesure de la demande. La surface, les températures de l'air, l'ensoleillement et le vent influencent tous le phénomène. Une zone aride est un endroit où le potentiel annuel d'évaporation excède les précipitations annuelles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89vapotranspiration_potentielle</t>
+          <t>Évapotranspiration_potentielle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Équation de Thornthwaite (1948)
+          <t>Équation de Thornthwaite (1948)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
         E
         T
         P
@@ -607,10 +625,9 @@
             a
             i
     {\displaystyle T_{ai}}
-[2].
-Quelques formes modifiées de cette équation apparaissent dans des publications ultérieures (1955 et 1957) par Thornthwaite et Mather[3].
-Équation de Penman (1948)
-Équation de Penman-Monteith</t>
+.
+Quelques formes modifiées de cette équation apparaissent dans des publications ultérieures (1955 et 1957) par Thornthwaite et Mather.
+</t>
         </is>
       </c>
     </row>
